--- a/Student List SOET 3rd Year.xlsx
+++ b/Student List SOET 3rd Year.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PerformX-KRMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FB8AB33-E74E-4052-A6DA-7890BE60531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5625D27E-B2D0-4B33-A25F-B211BBF8C38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEB123D4-B5BA-409A-A5ED-9FD99ADEBE94}"/>
   </bookViews>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -9562,7 +9560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3322F568-A4E2-4D1F-A6B9-64BCCBBF924A}">
   <dimension ref="A1:I1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1028" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G1080"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
